--- a/biology/Botanique/Gibbaeum/Gibbaeum.xlsx
+++ b/biology/Botanique/Gibbaeum/Gibbaeum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes du genre Gibbaeum appartiennent à la famille des Aizoaceae.
 Le nom « Gibbaeum » vient du latin gibbosus (=bossu).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit de plantes grasses croissant en touffes caractérisés par des paires de feuilles le plus souvent globuleuses ou parfois épaisses et arquées.
 Les feuilles d'une même paire sont parfois de taille inégale.
@@ -545,7 +559,9 @@
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Exposition ensoleillée et sol bien drainé.
 Selon les espèces, la période de croissance (apparition de nouvelles feuilles et floraison) se situe en été ou en hiver.
@@ -579,7 +595,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gibbaeum album : à fleurs blanches
 Gibbaeum angulipes : croissance en hiver
